--- a/html_css_tags.xlsx
+++ b/html_css_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Desktop/Isaac/코딩/HTMLStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86146E7F-6371-B64F-9CB7-F18E13DA6A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE310E-2793-0B4B-820B-B1095473CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7E252CCC-CF38-4D42-AD88-830C32F7AAE7}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{7E252CCC-CF38-4D42-AD88-830C32F7AAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="241">
   <si>
     <t>HTML / CSS 정리표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,18 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;thead&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;tfoot&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;tbody&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +461,695 @@
   </si>
   <si>
     <t>&lt;clear&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 시트를 
+이용한 웹 문서 디자인을 
+할 수 있게 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;head&gt; 부분에 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 문서를 불러올 수 있게 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;head&gt; 내부에 정의 
+대게 스타일시트를 불러온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 태그에 디자인을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 부분에만 디자인을 
+지정하고 싶을 때 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스를 지정하면 
+태그 스타일에서 특정 
+부분의 디자인만을 
+바꿀 수 있다. 
+(점을 사용하여 부름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 스타일과 마찬가지로 
+특정 부분에만 스타일을 
+주고 싶을 때 이용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 스타일과 
+비슷한 역할을 한다. 
+(샵을 사용하여 부름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p 태그 안에서 띄어쓰기는 
+한번만 인식을 한다. 
+(띄어쓰기를 여러번해도 화면 
+에는 한번만 띄어쓰기를 한 
+걸로 나온다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띄어쓰기를 더 하기 
+위해서 문맥안에 
+&amp;nbsp를 입력하면됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서의 정보를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;head&gt;안에 지정 
+홈페이지를 만들 때 
+필요한 정보를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서의 제목을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;head&gt;안에 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단락의 제목을 정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 부분에 1~6   
+커지면 크기와 굵기 
+작아짐 
+&lt;body&gt;안에 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수평선을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;body&gt; 내부에 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:red 
+color:#fff 
+color:rgb(255,0,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서의 배경을 지정해주는 
+속성이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-color:;
+background-image:url();
+background-repeat: repeat-x; 
+background-attachment:fixed; 
+background-position:10%10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장의 특정 구역을 지정해서 
+css 스타일을 적용할 때 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문단을 나누는 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 p태그 사이에는 
+한줄정도 띄어쓰기가 되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 바꾸는 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 그대로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들여쓰기 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글씨를 이테릭체로 만들어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트를 굵게 만들어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 밑줄을 그어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 취소선을 그어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위첨자로 쓰게 해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랫첨자를 쓰게 해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서가 있는 순서목록을 만들어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type를 지정해서 
+A,a,I,i로 영문대문자, 영문소문자 
+로마수 대문자, 로마수 소문자 
+(기본은 숫자 start 속성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서가 없는 목록을 만들어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type 속성을 이용해서 표시되는 
+모양을 바꿀 수 있다. 
+Type 속성 값으로는 disc(검동), 
+circle(흰동), square(사각형) 
+li 스타일에서 display:inline 한줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마치 영단어장과도 같은 정의목록 
+만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl &gt; dt(단어) &gt; dd(뜻)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글꼴의 종류를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1{font-faily:바탕체,synbol} 
+글씨체는 바탕체이고 
+수학기호는 symbol을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트의 글자크기를 지정 
+절대크기, 상대크기, &lt;길이값&gt;, 
+&lt;백분율&gt; 이용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{font-size:12px} 
+길이값을 이용한 글씨크기 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자를 이테릭체로 할 것인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3{font-style:italic} 
+글씨를 이테릭체로 하겠다는 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자의 굵기를 지정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{font-weight:bold} 
+bold, light, 100~900까지 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 대문자로 표현할 지에 대한 
+여부를 물음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small-caps를 하면 작은 대문자로 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 크기를 기준으로 줄 
+간격을 지정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{line-height:1.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낱글자 사이의 간격을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{letter-spacing:3px}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 사이의 간격을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{word-spacing:0.5cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트의 정렬방법을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{text-align:left,right,center,justify}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 취소선이나 줄을 그을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{text-decoration:underline,overline, 
+link-through(텍스트 밑에 취소선),blink(텍스트의 깜박임)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들여쓰기를 얼마나 할지 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p{text-indent:3cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위쪽 여백의 길이를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른족 여백의 길이를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래쪽 여백의 길이를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 여백의 길이를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 여백의 길이를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리의 두께를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-left-width 
+border-width-width 
+이런 방식을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리의 색상을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-right-color 
+(테두리 위쪽 색 지정) 
+border-width-color 
+(테두리 전체 색지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테두리의 스타일을 지정 
+테두리 스타일을 지정하지 
+않으면 기본값이 none이므로 
+테두리가 나타나지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotted: 점선으로 
+dashed: 직선으로 된 점선 
+solid: 실선으로 표시 
+double: 이중 실선으로 표시 
+groove: 홈이 파인것처럼 
+입체적으로 표시 
+inset: 전체적으로 박스가 들어간 것처럼 표시 
+outset: 전체적으로 박스가 튀어나온 것처럼 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서없는 목록의 검은 동그라미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서없는 모록의 흰 동그라미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서없는 목록의 검은 사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1로 시작하는 십진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0부터 시작하는 십진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로마숫자 소문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로마숫자 대문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리스문자 소문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리스문자 대문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳 소문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳 대문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히브리 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르메니아 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조지 왕조시대의 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 표의 문자형 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가타카나(A,I,U,E,O,KA,KI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히라가나(a,i,u,e,o,ka,ki)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가타카나(I,RO,HAN,NI,HO,HE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히라가나(i,ro,han,ni,ho,he)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 속서을 이용하면 불릿을 실제 
+내용 안에 넣을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불릿 대신에 이미지를 이용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul{list-style-image:url(./image/bb.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표의 시작과 끝을 알려주는 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능한 속성은 width와 
+summary이다. 
+(width: 표의 전체 너비를 지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표에 제목을 붙이는 태그 
+&lt;table&gt; 바로 다음에만 쓰일 수 있으며 
+&lt;table&gt; 한개당 하나씩만 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열을 만드는 역할을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행을 만드는 역할을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목행의 경우 행을 만들 때 &lt;td&gt;대신에 
+&lt;th&gt;태그를 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colspan 속성 -&gt; 행 합치기 
+rowspan 속성 -&gt; 열 합치기 
+(table -&gt; caption -&gt; thead  
+-&gt; tfoot -&gt; tbody 순서이다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹문서에 필요한 form을 삽입하기 위해 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method: 폼들의 전송방법을 선택한다 
+(get,post 대부분 post 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 필드나 버튼등의 폼 요소를 삽입할 때 사용 
+&lt;input type="button" name="butt" value="검색"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트를 입력할 수 있는 한 줄짜리 필드를 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 입력할 수 있는 패스워드 필드를 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히든버튼을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라디오 버튼을 삽입 
+여러개의 선택지 중 하나만 선택하도록 함 
+name으로 그룹을 묶는다. 
+&lt;input type="radio" name="object" value="선택1"&gt; 
+&lt;input type="radio" name="object" value="선택2"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스를 삽입 
+여러개의 선택지를 다중선택이 가능하도록 
+name의 이름이 각자 다름 
+&lt;input type="checkbox" name="object1" value="감자"&gt; 
+&lt;input type="checkbox" name="object2" value="고구마"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리셋버튼을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 첨부 버튼을 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 텍스트 필드의 이름 
+size 화면에 몇글자까지 보일 것인지를 정의 
+value 입력양식이 표시될 때 처음에 나타나는 글자 
+maxlength 텍스트를 입력할 수 있는 최대의 문자개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 필드와 거의 유사 but 입력 내용 * 
+나머지 속성은 text 필드와 동일 
+value로 처음에 나타나는 값을 지정해줘도 
+가려져서 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 목록 중에서 한가지만 선택 
+따라서 2개 이상의 버튼이 하나의 그룹에 
+묶여 있어야함 (name을 통해서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 항목을 선택할 수 있게 해줌 
+name의 값을 각각 다르게하여 
+전송되는 값이 다르게 해 주어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼을 삽입 
+누르면 input에서의 값들이 form action태그에 지정된 파일로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;form&gt; 태그의 action에서 지정한 서버 
+컴퓨터 내의 프로그램을 실행하는 버튼 
+등록하기나 보내기의 이름을 사용할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 양식을 모두 지움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 문서의 버튼의 형태를 만듬 
+javascript 함수를 연결할 때 주로 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저 창에는 표시 x 
+but 폼 안에 포함되있는 태그를 의미 
+이 역시 action에 설정한 프로그램으로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일을 업로드 할 때나 양식문서에 파일을 첨부할 때 사용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 목록을 만들어줌 
+&lt;select&gt; 
+  name : 선택 목록의 이름 
+  size : 선택 목록의 크기를 지정 
+  multiple : 여러개의 항목을 선택 o 
+  (이 때 size의 속성은 반드시 2개 이상이여야함) 
+&lt;option&gt; 
+  value : 각 항목을 선택했을 때 서버로 넘겨질 값을 지정 
+  selected : 초기 선택 항목을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크를 만들어주는 태그 
+텍스트 링크부터 메일 링크에 이르기까지 전반적으로 이용 
+반드시 href 속성과 함께 상용해서 어떤 대상으로 연결할지 
+(target : 새탭에 띄우기 
+_blank : 새 브라우저 창을 띄우고 거기에 표시 
+_self : 현재 브라우저 창에 표시 (default) 
+_parent_top : 프레임에서 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a&gt; 태그의 name 속성을 이용해서 문단의 특정 부분으로 
+점프를 하는 앵커를 만들 수 있음 
+( &lt;a name="top"&gt;처음&lt;/a&gt; 
+  … 
+  &lt;a href="#top"&gt;위로&lt;/a&gt; ) 
+href를 통햇 #을 이요하면 해당 부분으로 점프 
+링크의 밑줄 없애기 
+a{text-decoration:none;} 
+이미지 주변의 테두리 없애기 
+img{border:0;} 
+밑줄 점선으로 표현하기 
+border-bottom:1px dotted black; 
+a:hover - 스타일을 만들면 링크 위에 마우스 올렸을 때 스타일 
+a:active - 마우스를 클릭하는 순간의 스타일 
+a:visited - 한 번 들어갔던 페이지에 대한 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지를 삽입하는 역할 
+src 이미지의 경로를 지정 
+alt 이미지가 없을 대 나타나는 텍스트 
+title 이미지의 설명을 부연 
+width 이미지의 너비 
+height 이미지의 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악이나 동영상 플래시를 넣는데 사용 
+src 경로를 지정 
+autostart : true / false  - 자동재생의 여부 확인 
+width/height - 플레이어의 너비와 높이를 지정 
+loop - 반복재생횟수를 지정 
+hidden - 플레이어를 감춘다 (true / false) 
+showcontrols - 컨트롤 막대를 표시 
+enablecontextmenue - 메뉴를 마우스 오른쪽 버튼으로 클릭 
+(true / false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악파일 뿐만 아니라 동영상이나 자바 애플릿과 같은 
+다양한 개체를 삽입할 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 요소들을 원하는 레이어에 배치시킨다. 
+차후에 이런 레이어들의 위치를 지어함으로써 페이지를 디자인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어를 배치한다. 
+(static - 기본값이며 레이어를 일반적으로 배치한다 
+ (요소끼리 겹칠 수 없음 무조건 세로로 배치) 
+relative - 원래 위치를 기준으로 정해진만큼 떨어져서 위치를 지정 
+abolute - 상위 요소를 기준으로 정해진만큼 떨어져서 위치를 지정 
+fixed - 그대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소들을 웹문서 위에 떠 있게 하며 보통 메튜나 사이드 바를 
+왼쪽이나 오른쪽에 배치할 때 사용 
+position을 이용해 위치를 지정하지 않은 요소에 적용 
+left, right, none의 값이 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 속성을 이용해 띄운 상태를 종료시킴 
+float:right를 했으면 clear:right로 해제를 한다 
+clear:both라고 하면 모든 띄운 상태를 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +1205,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,430 +1529,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2350C78-4E1D-A946-B19E-2C26ED0910D4}">
-  <dimension ref="B2:P29"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="Q12" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:22" ht="23" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="N2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="2:22" ht="133">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" t="s">
         <v>53</v>
       </c>
       <c r="K3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="O3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="R3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="114">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" t="s">
         <v>79</v>
       </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="O4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="190">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="N5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="O5" t="s">
+        <v>206</v>
+      </c>
+      <c r="R5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="133">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="O6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>215</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="361">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="K7" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="O7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="R7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="T7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="114">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
         <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
+        <v>181</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="171">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
+        <v>182</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="T9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="38">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="76">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="P11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="K11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="38">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="P12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="K12" t="s">
+        <v>185</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="57">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="K13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="57">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="K14" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="95">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="H15" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="K15" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="114">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
         <v>64</v>
       </c>
-      <c r="N16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="K16" t="s">
+        <v>189</v>
+      </c>
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="76">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
         <v>65</v>
       </c>
-      <c r="N17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="K17" t="s">
+        <v>189</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="57">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="19">
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="19">
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="19">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="19">
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="H22" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="J22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="19">
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="19">
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="19">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="19">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="76">
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="95">
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" t="s">
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="K28" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="38">
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" t="s">
+      <c r="C29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
         <v>77</v>
+      </c>
+      <c r="K29" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
